--- a/1/4/Tipo de Cambio 1984 a 2021 - Mensual.xlsx
+++ b/1/4/Tipo de Cambio 1984 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="456">
   <si>
     <t>Serie</t>
   </si>
@@ -1379,6 +1379,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1736,7 +1739,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D452"/>
+  <dimension ref="A1:D453"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7543,7 +7546,7 @@
         <v>106.34</v>
       </c>
       <c r="D448">
-        <v>98.98999999999999</v>
+        <v>98.88</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -7557,7 +7560,7 @@
         <v>103.77</v>
       </c>
       <c r="D449">
-        <v>96.81</v>
+        <v>96.81999999999999</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -7571,7 +7574,7 @@
         <v>105.28</v>
       </c>
       <c r="D450">
-        <v>99.27</v>
+        <v>99.28</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -7585,7 +7588,7 @@
         <v>107.53</v>
       </c>
       <c r="D451">
-        <v>102.02</v>
+        <v>102.11</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -7597,6 +7600,20 @@
       </c>
       <c r="C452">
         <v>109.92</v>
+      </c>
+      <c r="D452">
+        <v>104.24</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4">
+      <c r="A453" t="s">
+        <v>455</v>
+      </c>
+      <c r="B453">
+        <v>779.83</v>
+      </c>
+      <c r="C453">
+        <v>113.76</v>
       </c>
     </row>
   </sheetData>

--- a/1/4/Tipo de Cambio 1984 a 2021 - Mensual.xlsx
+++ b/1/4/Tipo de Cambio 1984 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="457">
   <si>
     <t>Serie</t>
   </si>
@@ -1382,6 +1382,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1739,7 +1742,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D453"/>
+  <dimension ref="A1:D454"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7392,7 +7395,7 @@
         <v>121.11</v>
       </c>
       <c r="D437">
-        <v>105.99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -7434,7 +7437,7 @@
         <v>112.75</v>
       </c>
       <c r="D440">
-        <v>100.18</v>
+        <v>100.19</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -7476,7 +7479,7 @@
         <v>114.58</v>
       </c>
       <c r="D443">
-        <v>102.61</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -7490,7 +7493,7 @@
         <v>112.02</v>
       </c>
       <c r="D444">
-        <v>100.92</v>
+        <v>100.91</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -7560,7 +7563,7 @@
         <v>103.77</v>
       </c>
       <c r="D449">
-        <v>96.81999999999999</v>
+        <v>96.84999999999999</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -7588,7 +7591,7 @@
         <v>107.53</v>
       </c>
       <c r="D451">
-        <v>102.11</v>
+        <v>101.96</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -7602,7 +7605,7 @@
         <v>109.92</v>
       </c>
       <c r="D452">
-        <v>104.24</v>
+        <v>104.26</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -7614,6 +7617,20 @@
       </c>
       <c r="C453">
         <v>113.76</v>
+      </c>
+      <c r="D453">
+        <v>108.06</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4">
+      <c r="A454" t="s">
+        <v>456</v>
+      </c>
+      <c r="B454">
+        <v>783.63</v>
+      </c>
+      <c r="C454">
+        <v>114.35</v>
       </c>
     </row>
   </sheetData>

--- a/1/4/Tipo de Cambio 1984 a 2021 - Mensual.xlsx
+++ b/1/4/Tipo de Cambio 1984 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="458">
   <si>
     <t>Serie</t>
   </si>
@@ -1385,6 +1385,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1742,7 +1745,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D454"/>
+  <dimension ref="A1:D455"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7311,7 +7314,7 @@
         <v>106.73</v>
       </c>
       <c r="D431">
-        <v>95.23999999999999</v>
+        <v>95.3</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7325,7 +7328,7 @@
         <v>115.11</v>
       </c>
       <c r="D432">
-        <v>103.06</v>
+        <v>102.99</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7339,7 +7342,7 @@
         <v>114.41</v>
       </c>
       <c r="D433">
-        <v>102.74</v>
+        <v>102.69</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7353,7 +7356,7 @@
         <v>115.33</v>
       </c>
       <c r="D434">
-        <v>103.52</v>
+        <v>103.55</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -7367,7 +7370,7 @@
         <v>117.38</v>
       </c>
       <c r="D435">
-        <v>104.91</v>
+        <v>105.09</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -7381,7 +7384,7 @@
         <v>121.14</v>
       </c>
       <c r="D436">
-        <v>107.26</v>
+        <v>107.77</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -7395,7 +7398,7 @@
         <v>121.11</v>
       </c>
       <c r="D437">
-        <v>106</v>
+        <v>107.08</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -7409,7 +7412,7 @@
         <v>116.03</v>
       </c>
       <c r="D438">
-        <v>101.78</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -7423,7 +7426,7 @@
         <v>113.76</v>
       </c>
       <c r="D439">
-        <v>100.57</v>
+        <v>101.18</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -7437,7 +7440,7 @@
         <v>112.75</v>
       </c>
       <c r="D440">
-        <v>100.19</v>
+        <v>100.73</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -7451,7 +7454,7 @@
         <v>113.3</v>
       </c>
       <c r="D441">
-        <v>101.57</v>
+        <v>102</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -7465,7 +7468,7 @@
         <v>112.33</v>
       </c>
       <c r="D442">
-        <v>100.79</v>
+        <v>101.14</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -7479,7 +7482,7 @@
         <v>114.58</v>
       </c>
       <c r="D443">
-        <v>102.6</v>
+        <v>102.99</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -7493,7 +7496,7 @@
         <v>112.02</v>
       </c>
       <c r="D444">
-        <v>100.91</v>
+        <v>101.08</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -7507,7 +7510,7 @@
         <v>109.38</v>
       </c>
       <c r="D445">
-        <v>99.06999999999999</v>
+        <v>99.04000000000001</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -7521,7 +7524,7 @@
         <v>107.63</v>
       </c>
       <c r="D446">
-        <v>98.26000000000001</v>
+        <v>98.06999999999999</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -7535,7 +7538,7 @@
         <v>107.13</v>
       </c>
       <c r="D447">
-        <v>98.92</v>
+        <v>98.37</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -7549,7 +7552,7 @@
         <v>106.34</v>
       </c>
       <c r="D448">
-        <v>98.88</v>
+        <v>98.09</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -7563,7 +7566,7 @@
         <v>103.77</v>
       </c>
       <c r="D449">
-        <v>96.84999999999999</v>
+        <v>96.01000000000001</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -7577,7 +7580,7 @@
         <v>105.28</v>
       </c>
       <c r="D450">
-        <v>99.28</v>
+        <v>98.03</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -7591,7 +7594,7 @@
         <v>107.53</v>
       </c>
       <c r="D451">
-        <v>101.96</v>
+        <v>100.44</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -7605,7 +7608,7 @@
         <v>109.92</v>
       </c>
       <c r="D452">
-        <v>104.26</v>
+        <v>102.71</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -7619,7 +7622,7 @@
         <v>113.76</v>
       </c>
       <c r="D453">
-        <v>108.06</v>
+        <v>106.45</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -7631,6 +7634,20 @@
       </c>
       <c r="C454">
         <v>114.35</v>
+      </c>
+      <c r="D454">
+        <v>106.1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
+      <c r="A455" t="s">
+        <v>457</v>
+      </c>
+      <c r="B455">
+        <v>813.95</v>
+      </c>
+      <c r="C455">
+        <v>118.14</v>
       </c>
     </row>
   </sheetData>
